--- a/model/results/mix3_ggpos_h2pos/v_sec.xlsx
+++ b/model/results/mix3_ggpos_h2pos/v_sec.xlsx
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -1572,7 +1572,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999922</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999688</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.34072789115723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.01380612244904816</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918825</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183679103</v>
       </c>
     </row>
     <row r="13">
@@ -1830,19 +1830,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.34072789115637</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01380612244897033</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D19" t="n">
-        <v>1.623139795918307</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3741459183672773</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="20">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.34072789115165</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0138061224484983</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D20" t="n">
-        <v>1.623139795915239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3741459183637371</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="21">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -1962,19 +1962,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156288</v>
+        <v>1.340727891156625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244896215</v>
+        <v>0.01380612244899588</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918254</v>
+        <v>1.623139795918473</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3741459183672159</v>
+        <v>0.3741459183674689</v>
       </c>
     </row>
     <row r="26">
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891144621</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0138061224477954</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.62313979591067</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183584653</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -2028,19 +2028,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.340727891144994</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01380612244783275</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D28" t="n">
-        <v>1.623139795910913</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3741459183587454</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="29">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -2542,7 +2542,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219999999999988</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999518</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2646,19 +2646,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.34072789115723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.01380612244905107</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918848</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183679452</v>
       </c>
     </row>
     <row r="13">
@@ -2800,19 +2800,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.34072789115637</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01380612244897033</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D19" t="n">
-        <v>1.623139795918307</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3741459183672773</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="20">
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -2932,19 +2932,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156288</v>
+        <v>1.340727891156625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244896215</v>
+        <v>0.01380612244899588</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918254</v>
+        <v>1.623139795918473</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3741459183672159</v>
+        <v>0.3741459183674689</v>
       </c>
     </row>
     <row r="26">
@@ -2976,19 +2976,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891144621</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0138061224477954</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.62313979591067</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183584653</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -2998,19 +2998,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.340727891144994</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01380612244783275</v>
+        <v>0.01380612244791728</v>
       </c>
       <c r="D28" t="n">
-        <v>1.623139795910913</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3741459183587454</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="29">
@@ -3086,19 +3086,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -3487,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -3512,7 +3512,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999858</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999434</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3616,19 +3616,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3741459183673473</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="14">
@@ -3770,19 +3770,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.34072789115637</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01380612244897033</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D19" t="n">
-        <v>1.623139795918307</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3741459183672773</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="20">
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3741459183673473</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="21">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -3902,19 +3902,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156288</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244896215</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918254</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3741459183672159</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="26">
@@ -3946,19 +3946,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331164</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3741459183673473</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="30">
@@ -4056,19 +4056,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -4372,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -4457,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -4482,7 +4482,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999837</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999349</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4586,19 +4586,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -4743,7 +4743,7 @@
         <v>1.340727891156462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01380612244897962</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D19" t="n">
         <v>1.623139795918367</v>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -4872,19 +4872,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156288</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244896215</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918254</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3741459183672159</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="26">
@@ -4916,19 +4916,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -5026,19 +5026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -5427,16 +5427,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -5452,7 +5452,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -5493,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999873</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999493</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -5842,19 +5842,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156463</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244897962</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918368</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.374145918367347</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="26">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -5930,19 +5930,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.340727891156994</v>
+        <v>1.340727891155927</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01380612244903143</v>
+        <v>0.01380612244892612</v>
       </c>
       <c r="D29" t="n">
-        <v>1.623139795918705</v>
+        <v>1.62313979591802</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3741459183677092</v>
+        <v>0.3741459183669457</v>
       </c>
     </row>
     <row r="30">
@@ -5952,19 +5952,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.340727891158613</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01380612244919468</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D30" t="n">
-        <v>1.623139795919765</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3741459183689599</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="31">
@@ -5996,19 +5996,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -6046,7 +6046,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -6422,7 +6422,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -6463,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2200000000000024</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8800000000000096</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -6526,19 +6526,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -6856,19 +6856,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -6900,19 +6900,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.340727891156994</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01380612244903022</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D29" t="n">
-        <v>1.623139795918697</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3741459183677402</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="30">
@@ -6922,19 +6922,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.340727891158613</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01380612244919468</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D30" t="n">
-        <v>1.623139795919765</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3741459183689599</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="31">
@@ -6966,19 +6966,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -7016,7 +7016,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -7104,7 +7104,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -7392,7 +7392,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999976</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999905</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183673475</v>
       </c>
     </row>
     <row r="12">
@@ -7496,19 +7496,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891155564</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0138061224488898</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795917784</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183666734</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -7518,19 +7518,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.340727891156025</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01380612244893588</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D13" t="n">
-        <v>1.623139795918083</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3741459183670189</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="14">
@@ -7540,19 +7540,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.340727891155664</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01380612244889978</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.623139795917848</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3741459183667482</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="15">
@@ -7562,19 +7562,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.340727891156306</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01380612244896393</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D15" t="n">
-        <v>1.623139795918265</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3741459183672293</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="16">
@@ -7628,19 +7628,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.340727891155866</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01380612244891994</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D18" t="n">
-        <v>1.62313979591798</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3741459183668993</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.3407278911562</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01380612244895337</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D21" t="n">
-        <v>1.623139795918197</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3741459183671501</v>
+        <v>0.3741459183673475</v>
       </c>
     </row>
     <row r="22">
@@ -7738,19 +7738,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.34072789115561</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01380612244889437</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D23" t="n">
-        <v>1.623139795917813</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183667076</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -7826,19 +7826,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673475</v>
       </c>
     </row>
     <row r="28">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183673475</v>
       </c>
     </row>
     <row r="31">
@@ -7914,19 +7914,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.340727891156201</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01380612244895348</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D31" t="n">
-        <v>1.623139795918197</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3741459183671509</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="32">
@@ -7936,19 +7936,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891155515</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244888489</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795917752</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183666365</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="33">
@@ -7986,7 +7986,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8340,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -8362,7 +8362,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8403,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2200000000000021</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8800000000000084</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8466,19 +8466,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891155564</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0138061224488898</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795917784</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183666734</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -8488,19 +8488,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.34072789115591</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01380612244892434</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D13" t="n">
-        <v>1.623139795918008</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3741459183669323</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="14">
@@ -8510,19 +8510,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.340727891155664</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01380612244889978</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.623139795917848</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3741459183667482</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="15">
@@ -8532,19 +8532,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.340727891156264</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01380612244895979</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D15" t="n">
-        <v>1.623139795918239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3741459183671982</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="16">
@@ -8598,19 +8598,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.340727891155744</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01380612244890776</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6231397959179</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.374145918366808</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="19">
@@ -8664,19 +8664,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.340727891156147</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01380612244894802</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D21" t="n">
-        <v>1.623139795918162</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.37414591836711</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="22">
@@ -8708,19 +8708,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891155437</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01380612244887698</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D23" t="n">
-        <v>1.6231397959177</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183665771</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -8796,19 +8796,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -8884,19 +8884,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.340727891156132</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01380612244894659</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D31" t="n">
-        <v>1.623139795918153</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3741459183670992</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="32">
@@ -8906,19 +8906,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891155265</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244885988</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795917589</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183664489</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="33">
@@ -8956,7 +8956,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -9044,7 +9044,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -9244,13 +9244,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -9266,13 +9266,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -9332,7 +9332,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9373,10 +9373,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2200000000000021</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8800000000000084</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9436,19 +9436,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891155564</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0138061224488898</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795917784</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183666734</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -9458,19 +9458,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.34072789115591</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01380612244892434</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D13" t="n">
-        <v>1.623139795918008</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3741459183669323</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="14">
@@ -9480,19 +9480,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.340727891155664</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01380612244889978</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.623139795917848</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3741459183667482</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="15">
@@ -9502,19 +9502,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.340727891156264</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01380612244895979</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D15" t="n">
-        <v>1.623139795918239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3741459183671982</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="16">
@@ -9568,19 +9568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.340727891155744</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01380612244890776</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6231397959179</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.374145918366808</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="19">
@@ -9634,19 +9634,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.340727891156147</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01380612244894802</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D21" t="n">
-        <v>1.623139795918162</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.37414591836711</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="22">
@@ -9678,19 +9678,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891155437</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01380612244887698</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D23" t="n">
-        <v>1.6231397959177</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183665771</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -9766,19 +9766,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183673475</v>
       </c>
     </row>
     <row r="31">
@@ -9854,19 +9854,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.340727891156132</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01380612244894659</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D31" t="n">
-        <v>1.623139795918153</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3741459183670992</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="32">
@@ -9876,19 +9876,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891155265</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244885988</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795917589</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183664489</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="33">
@@ -9926,7 +9926,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -9992,7 +9992,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -10258,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777778</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10280,13 +10280,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -10302,7 +10302,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10343,10 +10343,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2200000000000021</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8800000000000084</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10406,19 +10406,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891155564</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0138061224488898</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795917784</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183666734</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -10428,19 +10428,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.34072789115591</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01380612244892434</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D13" t="n">
-        <v>1.623139795918008</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3741459183669323</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="14">
@@ -10450,19 +10450,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.340727891155664</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01380612244889978</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.623139795917848</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3741459183667482</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="15">
@@ -10472,19 +10472,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.340727891156264</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01380612244895979</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D15" t="n">
-        <v>1.623139795918239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3741459183671982</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="16">
@@ -10538,19 +10538,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.340727891155744</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01380612244890776</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6231397959179</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.374145918366808</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="19">
@@ -10604,19 +10604,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.340727891156147</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01380612244894802</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D21" t="n">
-        <v>1.623139795918162</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.37414591836711</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="22">
@@ -10648,19 +10648,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891155437</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01380612244887698</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D23" t="n">
-        <v>1.6231397959177</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183665771</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -10736,19 +10736,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -10824,19 +10824,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.340727891156132</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01380612244894659</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D31" t="n">
-        <v>1.623139795918153</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3741459183670992</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="32">
@@ -10846,19 +10846,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891155265</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244885988</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795917589</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183664489</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="33">
@@ -10896,7 +10896,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -10984,7 +10984,7 @@
         <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D2" t="n">
         <v>0.3622222222222222</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D3" t="n">
         <v>0.3622222222222222</v>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D4" t="n">
         <v>0.3622222222222222</v>
@@ -11225,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -11247,16 +11247,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.512916666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -12198,13 +12198,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -12220,13 +12220,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -12242,7 +12242,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -12283,10 +12283,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999979</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -12324,19 +12324,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.34072789115597</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01380612244893036</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D11" t="n">
-        <v>1.623139795918047</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3741459183669775</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="12">
@@ -12346,19 +12346,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891155564</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0138061224488898</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795917784</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183666734</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="13">
@@ -12368,19 +12368,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.34072789115591</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01380612244892434</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D13" t="n">
-        <v>1.623139795918008</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3741459183669323</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="14">
@@ -12390,19 +12390,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.340727891155664</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01380612244889978</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D14" t="n">
-        <v>1.623139795917848</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3741459183667482</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="15">
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.340727891156264</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01380612244895979</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D15" t="n">
-        <v>1.623139795918239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3741459183671982</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="16">
@@ -12478,19 +12478,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.340727891155744</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01380612244890776</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6231397959179</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.374145918366808</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="19">
@@ -12544,19 +12544,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.340727891156147</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01380612244894802</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D21" t="n">
-        <v>1.623139795918162</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.37414591836711</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="22">
@@ -12588,19 +12588,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891155436</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01380612244887698</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D23" t="n">
-        <v>1.6231397959177</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183665771</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -12610,19 +12610,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.34072789115624</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01380612244895739</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D24" t="n">
-        <v>1.623139795918223</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3741459183671802</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="25">
@@ -12654,19 +12654,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.340727891156069</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01380612244894021</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D26" t="n">
-        <v>1.623139795918111</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3741459183670514</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="27">
@@ -12676,19 +12676,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891099783</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01380612244331165</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.623139795881525</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183248372</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -12764,19 +12764,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.340727891156132</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01380612244894659</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D31" t="n">
-        <v>1.623139795918153</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3741459183670992</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="32">
@@ -12786,19 +12786,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891155265</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244885988</v>
+        <v>0.01380612244897968</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795917589</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183664489</v>
+        <v>0.3741459183673474</v>
       </c>
     </row>
     <row r="33">
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D2" t="n">
         <v>0.3622222222222222</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D3" t="n">
         <v>0.3622222222222222</v>
@@ -13143,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D4" t="n">
         <v>0.3622222222222222</v>
@@ -13165,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -13187,16 +13187,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.512916666666667</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D2" t="n">
         <v>0.3622222222222222</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D3" t="n">
         <v>0.3622222222222222</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D4" t="n">
         <v>0.3622222222222222</v>
@@ -14135,16 +14135,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -14157,16 +14157,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.512916666666667</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -15039,16 +15039,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666666</v>
+        <v>3.395833333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -15061,16 +15061,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.107606318124207</v>
+        <v>3.395833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4143475090832276</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6215212636248414</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -15083,16 +15083,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.395833333333333</v>
+        <v>2.844203276299113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3792271035065482</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.5688406552598223</v>
       </c>
     </row>
     <row r="5">
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.395833333333333</v>
+        <v>2.512916666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.5025833333333335</v>
       </c>
     </row>
     <row r="6">
@@ -15127,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>0.5433333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -15152,7 +15152,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -15174,7 +15174,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -15193,10 +15193,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999746</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999998984</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -16009,16 +16009,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>3.395833333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>1.996202718783976e-06</v>
       </c>
       <c r="D3" t="n">
         <v>0.4527777777777777</v>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.074998003797281</v>
       </c>
     </row>
     <row r="4">
@@ -16053,16 +16053,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.079158384030418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.410554451204056</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6158316768060841</v>
       </c>
     </row>
     <row r="5">
@@ -16075,16 +16075,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.395833333333333</v>
+        <v>2.512916666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.5025833333333335</v>
       </c>
     </row>
     <row r="6">
@@ -16097,16 +16097,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>0.6791666666666668</v>
       </c>
     </row>
     <row r="7">
@@ -16122,7 +16122,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -16144,7 +16144,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -16163,10 +16163,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219999999999949</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999997961</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -16688,19 +16688,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="34">
@@ -16710,19 +16710,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="35">
@@ -16732,19 +16732,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -16754,19 +16754,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="37">
@@ -16776,19 +16776,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -16798,19 +16798,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="39">
@@ -16820,19 +16820,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="40">
@@ -16842,19 +16842,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="41">
@@ -16886,19 +16886,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="43">
@@ -16908,19 +16908,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -16979,16 +16979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.395833333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999998</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.4527777777777777</v>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -17023,16 +17023,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.079158384030418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.410554451204056</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6158316768060841</v>
       </c>
     </row>
     <row r="5">
@@ -17045,16 +17045,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.512916666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.5025833333333335</v>
       </c>
     </row>
     <row r="6">
@@ -17067,16 +17067,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -17092,7 +17092,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -17133,10 +17133,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999915</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999661</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -17658,19 +17658,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="34">
@@ -17680,19 +17680,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="35">
@@ -17702,19 +17702,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -17724,19 +17724,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="37">
@@ -17746,19 +17746,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -17768,19 +17768,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="39">
@@ -17790,19 +17790,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="40">
@@ -17812,19 +17812,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="41">
@@ -17856,19 +17856,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="43">
@@ -17878,19 +17878,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -17952,13 +17952,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999998</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.4527777777777777</v>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.395833333333334</v>
       </c>
       <c r="D4" t="n">
         <v>0.4527777777777777</v>
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -18015,16 +18015,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -18037,16 +18037,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333331</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -18062,7 +18062,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -18084,7 +18084,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -18166,19 +18166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.340727891157264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.0138061224490598</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918889</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183679483</v>
       </c>
     </row>
     <row r="13">
@@ -18320,19 +18320,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.34072789115637</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01380612244897033</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D19" t="n">
-        <v>1.623139795918307</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3741459183672773</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="20">
@@ -18342,19 +18342,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.34072789115165</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0138061224484983</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D20" t="n">
-        <v>1.623139795915239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3741459183637371</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="21">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -18420,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -18452,19 +18452,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156288</v>
+        <v>1.340727891156625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244896215</v>
+        <v>0.01380612244899588</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918254</v>
+        <v>1.623139795918473</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3741459183672159</v>
+        <v>0.3741459183674689</v>
       </c>
     </row>
     <row r="26">
@@ -18496,19 +18496,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891144621</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0138061224477954</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.62313979591067</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183584653</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -18518,19 +18518,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.340727891144994</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01380612244783275</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D28" t="n">
-        <v>1.623139795910913</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3741459183587454</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="29">
@@ -18606,19 +18606,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -18628,19 +18628,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="34">
@@ -18650,19 +18650,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="35">
@@ -18672,19 +18672,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -18694,19 +18694,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="37">
@@ -18716,19 +18716,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -18738,19 +18738,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="39">
@@ -18760,19 +18760,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="40">
@@ -18782,19 +18782,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333341</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888905</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111129</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888905</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="41">
@@ -18826,19 +18826,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="43">
@@ -18848,19 +18848,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -18922,13 +18922,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999998</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -18985,16 +18985,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -19007,16 +19007,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -19032,7 +19032,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -19073,10 +19073,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199999999999906</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8799999999999625</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -19136,19 +19136,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.340727891156275</v>
+        <v>1.340727891157264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01380612244896083</v>
+        <v>0.0138061224490598</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623139795918245</v>
+        <v>1.623139795918889</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3741459183672061</v>
+        <v>0.3741459183679483</v>
       </c>
     </row>
     <row r="13">
@@ -19290,19 +19290,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.34072789115637</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01380612244897033</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D19" t="n">
-        <v>1.623139795918307</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3741459183672773</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="20">
@@ -19312,19 +19312,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.34072789115165</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0138061224484983</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D20" t="n">
-        <v>1.623139795915239</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3741459183637371</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="21">
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891156463</v>
       </c>
       <c r="C23" t="n">
         <v>0.01380612244897959</v>
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.374145918367347</v>
       </c>
     </row>
     <row r="24">
@@ -19422,19 +19422,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.340727891156288</v>
+        <v>1.340727891156625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01380612244896215</v>
+        <v>0.01380612244899588</v>
       </c>
       <c r="D25" t="n">
-        <v>1.623139795918254</v>
+        <v>1.623139795918473</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3741459183672159</v>
+        <v>0.3741459183674689</v>
       </c>
     </row>
     <row r="26">
@@ -19466,19 +19466,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.340727891144621</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0138061224477954</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D27" t="n">
-        <v>1.62313979591067</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741459183584653</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="28">
@@ -19488,19 +19488,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.340727891144994</v>
+        <v>1.340727891156462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01380612244783275</v>
+        <v>0.01380612244897959</v>
       </c>
       <c r="D28" t="n">
-        <v>1.623139795910913</v>
+        <v>1.623139795918367</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3741459183587454</v>
+        <v>0.3741459183673467</v>
       </c>
     </row>
     <row r="29">
@@ -19576,19 +19576,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.340727891156462</v>
+        <v>1.340727891155323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01380612244897959</v>
+        <v>0.0138061224488657</v>
       </c>
       <c r="D32" t="n">
-        <v>1.623139795918367</v>
+        <v>1.623139795917627</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3741459183673467</v>
+        <v>0.3741459183664926</v>
       </c>
     </row>
     <row r="33">
@@ -19598,19 +19598,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="34">
@@ -19620,19 +19620,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="35">
@@ -19642,19 +19642,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -19664,19 +19664,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="37">
@@ -19686,19 +19686,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -19708,19 +19708,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888902</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="39">
@@ -19730,19 +19730,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="40">
@@ -19752,19 +19752,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333341</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888905</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111129</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888905</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="41">
@@ -19796,19 +19796,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="43">
@@ -19818,19 +19818,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111124</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
   </sheetData>
